--- a/data/trans_dic/P24_5_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_5_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores de cabeza con bastante o mucha frecuencia</t>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,37</t>
+          <t>4,21; 12,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,9</t>
+          <t>5,33; 14,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,11</t>
+          <t>4,68; 14,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 12,36</t>
+          <t>6,73; 17,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,41; 23,42</t>
+          <t>2,95; 10,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 20,12</t>
+          <t>13,42; 24,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,22; 27,11</t>
+          <t>12,24; 22,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,01; 22,4</t>
+          <t>21,96; 33,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,89; 15,87</t>
+          <t>14,01; 24,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 15,03</t>
+          <t>17,24; 29,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,93</t>
+          <t>10,2; 17,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,29</t>
+          <t>9,97; 17,08</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 23,32</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,43; 19,14</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 19,11</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,39%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15,28%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 12,63</t>
+          <t>3,16; 11,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,4</t>
+          <t>2,55; 10,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,3</t>
+          <t>5,26; 15,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 9,33</t>
+          <t>2,14; 10,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,87; 30,95</t>
+          <t>4,15; 14,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 28,54</t>
+          <t>17,14; 30,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 25,56</t>
+          <t>19,2; 32,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,0; 35,23</t>
+          <t>17,33; 30,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,93; 20,43</t>
+          <t>19,08; 32,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 17,7</t>
+          <t>13,59; 26,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 17,9</t>
+          <t>11,65; 20,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,75; 21,03</t>
+          <t>12,04; 20,73</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12,72; 20,67</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 20,16</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>10,54; 18,47</t>
         </is>
       </c>
     </row>
@@ -936,17 +1021,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1041,57 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>21,5%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 48,3</t>
+          <t>0,0; 68,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,27</t>
+          <t>0,0; 30,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 20,47</t>
+          <t>2,73; 35,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,85; 37,88</t>
+          <t>0,0; 14,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 28,04</t>
+          <t>15,89; 45,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,21; 38,37</t>
+          <t>12,36; 41,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 34,38</t>
+          <t>16,33; 46,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,67; 37,22</t>
+          <t>7,95; 34,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 16,34</t>
+          <t>13,36; 43,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 25,22</t>
+          <t>14,61; 50,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 17,14</t>
+          <t>8,44; 28,45</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 33,29</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 19,11</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 25,43</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 12,74</t>
+          <t>5,77; 18,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,6</t>
+          <t>4,86; 10,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,86</t>
+          <t>6,22; 13,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,5</t>
+          <t>4,49; 10,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 25,16</t>
+          <t>4,19; 9,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,69; 21,87</t>
+          <t>17,45; 25,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,23; 25,44</t>
+          <t>17,46; 25,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 25,85</t>
+          <t>21,77; 30,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,17; 18,13</t>
+          <t>17,8; 26,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,86; 14,8</t>
+          <t>17,92; 27,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 17,7</t>
+          <t>13,08; 19,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 16,85</t>
+          <t>12,22; 17,5</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15,41; 21,08</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,03; 17,47</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 17,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29116</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37606</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32121</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>41138</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32221</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>78724</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>85570</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>115714</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>77265</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>131107</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>107840</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>123176</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>147835</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>118403</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>163328</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15402; 45400</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22924; 64240</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17134; 54317</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25634; 65570</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15233; 54857</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>58438; 106014</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>62273; 115685</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>92449; 141785</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57091; 100615</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>97180; 168937</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>81704; 140040</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>93565; 160394</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>117591; 183588</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>90119; 150867</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>122987; 206352</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19705</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19392</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29331</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16677</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33222</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>81239</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>109232</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>78293</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83816</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>84405</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>100943</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>128623</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>107624</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>100492</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>117628</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9638; 36156</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9161; 35927</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16759; 48077</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6902; 33926</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17103; 57775</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>59991; 106342</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>81665; 138609</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58364; 101981</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>63931; 107255</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>58580; 114408</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>76253; 134270</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>94517; 162664</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>83370; 135424</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>74721; 132591</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>88897; 155757</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21894</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8677</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9191</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3245</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23702</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25095</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25461</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16112</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29392</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>45597</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33771</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>34652</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16112</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>32637</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 57737</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 30939</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2172; 28572</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17226</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13126; 37325</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12502; 42372</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13321; 38052</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6559; 28450</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14880; 48362</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24464; 85082</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17118; 57735</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>18901; 53655</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7201; 32137</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>16040; 57866</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>70715</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65674</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70643</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>57814</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>68688</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>183665</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>219896</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>219469</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>177193</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>244905</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>254380</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>285570</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>290111</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>235007</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>313592</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>43559; 136975</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>43338; 95022</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>47548; 102461</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35435; 81154</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>43743; 102659</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>151436; 222712</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>180750; 261149</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>182745; 256394</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>146821; 217610</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>198193; 299729</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>212274; 321536</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>235450; 337074</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>247154; 338062</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>194188; 281921</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>263298; 380343</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
